--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/2_Adıyaman_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/2_Adıyaman_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C373D19-A24D-460F-9526-1B9F67829CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E82079-9FDC-4F23-B661-0C7B39683FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{ABD226A0-4E4D-4010-B001-3AA2BF8795AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{CA32FDCE-E309-408C-A4CA-5E22475E0F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -940,14 +940,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AE177D3C-30A4-4B6A-9550-F32D72B2C32F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6139C42E-CF4E-4BC6-A366-6059D8223648}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A72BC280-7D98-4419-BDBC-C94A0D15E68A}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{0054777A-DD70-431E-9650-E7081D390B96}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{130E1227-ED99-4C06-AA3D-147EA3D34092}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D8433C73-DB4A-48FD-9553-48A0E33723A0}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{B9162735-40C9-411E-AC15-C56DC1D76127}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D8509D25-201F-4D1C-A23E-314D5A274080}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{59571048-78F4-4D12-BBD6-5478C108D0E6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{90E7586A-7EFB-4189-AFB1-4D6850597953}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1E37103F-CA5C-48EE-814B-82FEC826EAA1}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{B0B4A519-4ABD-4F3A-96B5-3031350721D6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3778887D-34EB-4254-8E2C-018EA1FDD63A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7738FA49-9940-433E-BE35-BB66B7888E54}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{C937FDC7-C28E-4DE1-88B2-5CE96AA534AD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DD73F52D-5128-4E7F-B2B1-D6A5A376F904}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CBC375-BA8C-4C9B-A4DD-61AFF541C0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC885A03-501B-4463-A808-0DFA2C7AAFBA}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2609,18 +2609,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76DF862E-6C44-458F-93FB-BCFDF4FB7804}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A0A936F-F1BE-440C-9139-6CB08238A37B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A292D63-F9E5-4228-BD1C-34A18073EC96}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8FE18C89-02C6-486E-B5E5-E3C44B3C23E0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2B938275-2F6F-404A-904B-49B70E632ABB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FA59C14-FF27-4AA1-8712-F6683582C763}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AA3D818-2B89-464A-8D6C-7CDCC9E985EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C81A787-F5F5-456C-886E-265FBB6E065C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65CF47A9-BBDF-492A-A591-9A4C9F1166EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{770DA251-5046-44A0-82EF-C881AC34FBAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{136B7B91-5D20-4BFB-83A5-89A615A5338A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96685BA6-A37D-466F-9741-EF02EFE5E977}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EF63BD4-D275-4C57-948C-2BC42874F9D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{523670ED-D7C7-4A3C-BA25-2D621D190C52}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1AF290D-942B-441F-81CF-A93178A2019D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2FE0C56D-ECA9-4EA0-AB97-46625F975CC7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1B517C7A-DE9B-4B95-BA6D-71F9D298C47B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48666B7B-31A5-4D00-98E0-512069B5F65B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66B79EE4-B895-4474-8278-64B1E4363860}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BBA452B-D948-42DA-B0AA-FBBFB137EE88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{683BEDF2-3ED7-45FC-94F7-A5D758EDA5C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FFAD0C6-5C7F-4474-AA55-07FFE7765374}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A518EFD9-E76F-4258-9D0B-F2C90217AAA0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4576C28-5407-48BB-B756-C3C033E8DDA5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB2415-B885-4DFD-A06A-2876EC3574BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E30129-ADA0-4252-92B3-509803A69D8B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3906,18 +3906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E484454-C190-4341-8A27-3805B7A4E10B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A27F1153-8303-475D-B60B-33F4EF7E202B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86252237-98D7-446E-990D-866714670615}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9F4345F-B8E7-4B11-B196-6A59500E6FA9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7216B1D6-186C-4D82-90D0-0DF36FA23156}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2989379-7C1A-4033-A3F9-AA532681231E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E09E61A4-2262-4BC8-9B23-D348E73E77C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D1A0F4B-C5C9-44B4-A228-AB5069A0C849}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22D9E728-419D-4B4F-B1AD-CD1F3D75C038}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1945E307-F8E3-4E09-AEFE-9A7F2DAF9BF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28AEDE4E-89CF-4BDD-B743-6C55158DB726}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70F17FC1-FE59-4ADE-B314-67DFBA89BC0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CF9C40B-E287-40DD-BD15-9E3C18DC7719}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18A81983-8F17-448A-BD70-7AB2BF1877CD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B26E51B-F646-46C8-95E2-714DFB279BCD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAF2D069-816D-412D-BEDC-24770701FEA4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1DC8658F-7026-434A-BE78-883BB38272AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF37BCFD-FF7B-441D-A951-B1EF001E9ABA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC5924E4-3B1C-4075-8830-BE356D7A5823}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29BDC6B8-01A0-4495-8985-0795B4FFCBEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B44C11AE-98D2-4F6E-B595-024148B59E03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E5E0F73-0E6D-4C9A-A2C2-3E0EC5333EF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95592D7A-B2C1-4EFC-AE31-F6B1C4645B93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24600DE0-D7ED-4C6E-BA0E-DB2F2AAA644E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540B7FDC-3CB2-4752-9DE2-DC7E3EF3D2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67B50B9-8E80-488F-AC31-412E06BB6CA6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5201,18 +5201,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7B00867-91E2-40E8-80CE-2329DC2D3510}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A64CA33-9CE8-4FA8-890D-440D0681B403}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F139DEB-BAD4-4D97-97B2-0FA92C03E22B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18CD4499-3417-42E0-BF3E-5F78D4ED856A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1117E639-5747-401C-B0C3-066368B99F7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA1D06B9-C5DC-4B09-997C-54AD77B4FED8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8DB20AD-38A3-4B1E-8619-70C3C7C249B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC021AFB-4F39-4CF7-B9FB-C93BB112CFF7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCFB3728-0AB1-41B9-874D-001CB88FD305}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E46CFD80-FE46-4466-B0CD-522C2299B437}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{852FA59C-9337-47C1-8C32-D53AC8C9B713}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56A019EB-0340-4DFC-BB64-B131B351C263}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D697CCF-46B4-4048-9170-56C7BC5F7F1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CFA08DB-3780-475D-90F7-DE825F9CD19C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5A22C12-0B72-497F-A7CC-000BC08EB0CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA655640-593B-4B9C-87F7-4678F45C2992}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6BC02CE6-B1E6-4FD7-AA03-CC01A98F9E1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F44B93F-46EA-4A67-8B05-343496EE1BAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD093069-0272-404B-B63D-4F2EBF3D746C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67304BDC-FD4A-4A86-A0B0-65C5C2AF7512}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECACBBD3-5F1F-4CE5-9CEC-1A69B7C3E491}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A46A838-3D14-476C-A68E-E029BC5E3717}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67AAA33D-6027-4108-8B44-9F4C411BF3ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{135B6DBB-2731-4637-A9AA-807D189B458C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C95AE93-A0F0-4E7F-B75C-F61AA56E5461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE29EEB-272D-462E-82E2-7052858660C3}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6471,18 +6471,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{849CB144-396C-4593-A7C4-3548D15D1C6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FC68BD1-8F45-4FBD-8D3B-80BC946161EF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{62BBF420-21A0-4F65-93B9-D2EC5B82A428}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04A2D0C9-775C-4EA4-BC6F-154CEFB5EB47}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EAC358E3-35D3-44CA-849A-0F1DC90082E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBD27D23-FF9B-41F7-BFB4-338940A70E9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEA80455-5D3E-4A6F-9133-BE66D84CFD97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0D73C3F-7D08-4CC2-9099-64B72F159D29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A375D839-2143-4715-9C21-EE70A7972394}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6D61894-E9D2-4AF5-A642-298D5F17D70F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A6A73DB-AB7D-4D62-82F0-82FC53A9F840}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A96AB92-12FE-4461-85AF-DD3EA0CFF8D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBF0844E-2757-40AA-8ECB-1B1F906616DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{300EBE13-9940-4CF6-9F2B-A0E3E77A064E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63934557-AE93-49A6-AA9D-EDBE691F1D3D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A88118D8-7395-44A3-99AF-C088BD623E1A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FEE6B20D-5874-42DC-A6BA-5A224DF84539}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13EC58EC-BBF9-40B4-B78B-959DF88792DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67C138E6-4206-4D1A-86EA-F2526028C42A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99F29B90-FBC9-4236-B175-DC997BC2F354}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DF538F8-3EA0-42F9-8A57-94DA5449FA0F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BF4725F-7CC7-40DB-801A-92E649D758F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F18EDA6C-ADD7-42B2-8F86-BAB2F61CE618}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82F00CCF-AAE0-4565-BE53-28A1D7784497}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6495,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F49D650-4052-4A4F-B5F5-383E22E3DD60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44431067-C3A8-4365-AACB-C49730FF01D6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7784,18 +7784,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1628F53-948E-46A6-92E1-0890924E0417}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E28EB9CA-F236-4827-B08D-4E0A7495874A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{80AEBCD1-DC36-45CE-9541-35FB55467FCE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81D704CB-3022-48B5-A91E-41738CC1A596}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3622B1C9-15E3-4873-A8C3-5B781AEE16F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9D32C5B-8CFE-48A4-B46C-D12E19773A6C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F0B4E97-5001-43D5-A04B-79087E88539D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBCC742F-492B-484A-8503-487D20F6ACC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97FEC5A6-7546-417B-A5B9-5264C8A17FCA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60FED22D-84B2-458F-857E-94810D5C95E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7556DC6-054E-4A34-856A-2966D5E3A878}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CFB7724-AD9C-4CBE-BA63-8A203304AB37}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FFA4361-FDCE-4AFD-84E9-60624D07208B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{831A9AD0-A349-4D00-9FAC-E70A1F2C0EBC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DC492A79-AA6F-41A3-8932-FC7DFC158022}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C048F329-D662-4ABA-B1F4-C591A9CAD152}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{09A49475-ED6F-4A76-895D-87A3FEFC7BD8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54B693A9-FD8D-4104-99E8-7D0CAD81652B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9361706-D897-4A3E-9B23-B54CC6B733AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F120D6A0-EA7C-4C33-8E19-E4AA9CDF5617}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D693F06-90FB-4169-8939-CAB7FCCF64FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30DCA898-9413-4969-95AF-CF9148B1B061}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5925FE90-42EE-479D-A882-5BA481C6E19D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9EBF2C8-2761-4682-8E4E-FB7F56232B4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7808,7 +7808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBF882C-B76F-46E9-B31B-D981780C5B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6EF0DC-D9E4-4E68-BBBF-D55C9C6C8B1B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9093,18 +9093,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDD6E785-6678-420A-A30D-68C33DF0DB47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4595F944-92C0-437D-A786-7EA4DF00278C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{176D34E4-4CAF-463B-88E0-63AEE2E51E64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20B6E7A1-C32C-4BFD-BD87-1D170EEC32C5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3984B431-8959-47B2-9CDD-344D275E9F53}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A0C61B6-B1B2-4551-973D-5C85EF133DEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B305B9-4CC5-42EB-B038-0F913570BB35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97772BAF-743B-40D5-AC6D-E15F7563910C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF95D308-6F8B-44AD-8094-52F52D7C7E8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C695469B-D1AC-4352-B1B3-36F94957E1A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD367A30-6EFC-4DC4-B8DA-141296C6278D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6EC0042-49EF-49F7-B77F-B8BC86F39AB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50BF801A-7A79-40E6-8D6C-00D2CB7C97C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECE7AC66-B59A-488B-BCFB-58CF4F3C16EA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF76A54C-9B40-4C39-836B-E5A5271A7661}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{683DB904-6903-47C4-98BD-D5611748338D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1E82EA4B-4962-491F-9AA7-E71A69BAD8CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18ACD0E9-6DE1-4A3B-89D5-0CBA111C8B89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64C962C9-6CD0-4177-8104-E7A587DC2A6A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9F99841-C617-470D-99FC-8805A42951EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{933FFCF0-E7BC-478F-8410-C3EB1A0A93C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3227D40B-AB51-4ED9-9EF8-7692E7B238DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1205F522-3F12-4AFE-8CB9-9D7C3D917DC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7A49B68-F0CB-4AFD-A7E6-A9DC728215A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9117,7 +9117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F7C88-A060-4D06-93BB-FDEC15ED4097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5EB0BD-1125-41D9-AB20-AF0E80B48B2F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10406,18 +10406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C95FA0A9-9DEB-4085-9940-FD6D6756673A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A566C489-E12A-46B1-A1F6-F2C364BBAE00}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02507B49-AF3A-4894-8D27-4B68985E7F8F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D6B4262-8F97-445C-851B-5719D41D7E0A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{770D8BE7-AEC9-4BD7-A1A3-35228F92C65A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73454A72-F09D-4D3F-8625-D15E5674D951}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B612984-9F83-4786-9F39-430C1ABDBCC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EA8405F-5D6B-4BBA-9E67-E415069BB16D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79955083-C09E-40C5-AC23-EDAB86469362}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB7DCC93-76BA-464F-8237-67B72515E9A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E76A46DC-6A8A-47C8-802F-07A361516A85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92AE5F3C-760D-4877-A77B-F21A63089357}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{016F47FB-C27E-4A32-BDE3-B82A858095D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DB47D04-F33E-4F21-8BE2-BD5EDC3B0EFE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AA9A20E-2D02-4C14-AAEC-47C9CD580FCB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B33312DA-39D6-4616-8A4C-4DF95586CE8D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5EC6CDF1-5B94-48D3-BA88-363D6B6DE5C6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{873A16D6-5CDE-459E-B2D8-58F939C00665}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EF781B6-1A6D-452B-A2F2-F60C414B9E9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3F2EEAE-BD27-4245-8A6A-032DC9C5712C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA910A0F-FC39-4815-8F9D-4EFFEF81E604}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{459F85B8-E101-443F-A69C-2E40FDBBC2F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24A8D81B-C12C-4971-B79E-09E61AA10FB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A35EFC5D-4023-4A22-BC49-D4C75665D539}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10430,7 +10430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AD7FA8-1FFB-441F-BDB2-9093E30BF2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0C35ED-2FA1-4C34-8FAD-20F9C0006F33}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11719,18 +11719,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{243052A2-2031-4967-9EFC-1CFA5D3B9337}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DF6354B-3BF6-40D6-8C7C-7975623F8649}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{206E6510-6B13-4C76-ADCB-45B482F669F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C28A6569-C439-4DD5-8FB4-49161FE693A7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{233A5319-A646-44B3-96A4-7823FC7A16E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F7CB242-29D1-4A21-92D4-E9774C751F7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE96F865-E8E9-4A51-88B3-91DBFBB265D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81C1E270-1CE7-4E85-9A9C-B8583E1A7D02}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8B86264-68A4-4E81-BCB5-DBED5D1DFDB3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{878D1675-310E-4759-9DEB-F2B085CC043E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C695353-A46F-45ED-965D-F56DBE78A166}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B64F7CA3-CFBE-4D47-A65F-FA3AE84E6A8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9AF61E7-7C57-4C16-BAA1-39C028C04ACC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4CDD1AC-A392-4568-B7A6-7F91F668D6C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E936D26-2C6D-40E8-B952-BE21C896A0D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{132DFD13-5789-4BA2-82C3-B9BB28149B3E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0FCCABAA-6E55-456E-8AD4-FB2732DEA5F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A4380D5-070E-443E-8A7B-10509B96AB36}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{674E079A-907F-44D1-9081-2EA8C447F1C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7FBCBA5-C7B8-4E1F-A7BA-DC1041E2C511}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63122C26-EC00-4DB4-9056-3BF45969AE70}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0D4BE17-7DB5-49D0-83BA-6DFFB255E182}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BA044D0-0A1D-4748-9A99-811C81501FCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B958C85-53D4-4DAE-9AD9-1D4CCD4C36EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11743,7 +11743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFBAC83-C79B-4471-A93E-7F603942F3FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01709C72-5B19-4711-8B4A-BA8AC6500559}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13028,18 +13028,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC848658-4346-4BF8-B0E3-F358820FB674}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{937ED1BA-F015-4E9C-8F99-3517C31C407F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A18597B-F0FE-4362-A784-41FE2BA4238A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D0A637E-AEDB-4638-A035-C7E9C159370A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{38341B3B-F7A4-45EE-8418-63B6A06A8545}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD3EA060-7963-41A8-AD8A-53ABBFDB0335}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E94D7296-3E66-4FDA-89A4-DF648F8D46E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D644C458-788F-49EB-9ECE-EEC1823FDA3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{902446D9-B8D7-4BFE-B6B0-D2C2B872CDB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B27194D-AFFE-479C-B2C5-9353A9AAD8A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA3BB2CF-3A07-4165-88A6-B2DAD55499CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EEA3511-4CA9-4661-A207-28364AAF6CC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9469CFA7-60DB-4BAF-AE18-7D0281A1384C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37CB5DAF-EEA4-4C99-9B6D-F23A1D727848}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15026A2A-8F7C-49C0-B23B-79FB5F62DFE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1E710A1-EC0F-4B65-BACC-86AEED2E4102}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{37D60F77-36FD-495E-8233-12ACA477A19C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29CA317A-9038-4A4D-AEBF-6B2F748C95BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9802E658-6DA4-49B9-93DE-B3C64B2FEF61}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98F9F28C-0E66-4153-8600-E376D0098470}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{720D051C-F470-4CD5-8D5A-0EC9865D5E23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B24EECC4-1EF0-46F7-845B-9B5D342FA877}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E2AF004-EAD6-4381-8B80-9B97EBF9177E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFA084E7-D942-4BC6-8603-9DADC8ABABA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13052,7 +13052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BF1D21-11AF-464A-8572-22DDA4B3F7DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF4B6B3-53A7-4B18-BE1D-08CFAD05CD0F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14337,18 +14337,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59C2010D-DE6F-47D1-A096-0C8CB8BAFFFD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1887925-5004-49F9-9458-57D07CCF5603}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39CB0DE9-E764-42E8-8E13-F597456B4F3E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA167057-8805-4090-934B-F1C4CF2FB5E0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2E8A0A0C-D272-4A45-88EB-D36DEDCDFE3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1C3C9DE-B261-4BCD-83F8-D5A29706048C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E0E72B5-178B-431D-BD57-8DDA38428DA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1FF0F18-BBFA-4687-A63A-BEE9284A4F09}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B051D865-4DF9-4CA3-B1A3-7A26150826C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABC3250E-52F4-4316-A627-FA0A2667DD38}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A37E8E2C-3E3A-4744-879B-A552A1E80A97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E6A6F38-E380-42FF-BE12-AB6E19698F51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C807B41B-801B-4899-8207-DE25D9CFDFDA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE8DDEC9-8051-43EA-8E28-F1B5E63E84EE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CEC1B283-36DF-4791-A011-87AF5464CAE6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5218A94-EABD-4FF1-A408-0A2C070F858E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{185F9617-9021-4A24-988A-9881862E30D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{206A5CCE-8FD7-484B-AA09-CE13C983CAC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CC424A8-DBA5-4FA8-9DBD-5800D70AE340}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB12795F-2D7C-4F23-9010-03539680F0C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BA2A48F-A075-4508-9F3B-E615D18FB6FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11C2823F-BB69-4641-8FD1-989BC2707CFC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12153E83-8DB9-48C9-B98E-8EF970206B28}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38B81FE2-269D-4CED-9876-C6F93AA8F918}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14361,7 +14361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B5D82-B55D-49A0-801F-C363EA381A88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E743FD56-BC1C-4D57-B75E-6970A8EC5514}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15644,18 +15644,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A4A420C-A0C5-4B83-9F66-A55229E6A41A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FE436F9-D58C-4EFF-8B87-60ABA735988C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C432192-B648-471B-A622-C279E03FA023}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F97C090D-A23A-4D8E-B366-0E1D722D9472}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A8851892-CF5D-459B-BEAC-A9B5D00D897C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6113C6C-3296-47FB-8429-47CB04E2A1C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F3ABFDA-1D91-410D-AFF3-42E27DB1A407}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EEECB9F-8859-4AC2-BC09-04090671D616}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24CD7E0F-9004-448C-A78D-FDE2B1A9FB55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB07BD83-F89D-4257-9840-737A6379FD1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8CF6667-EBF6-4822-8092-2290715ED6A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E0D60D8-0BB8-4D6F-B0F3-CE404012ABB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50896265-C9EE-4854-927F-BED43DA5FBE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{294C8A49-C312-45A0-A32A-FFCD024FA302}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F705AEDF-9994-44A5-9941-D7289EE766CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41386004-6434-4638-A5C1-B98A81A395E2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CB6F4C63-5232-435F-8A4B-65D6F9371DB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D60F3F4B-5FF6-41CF-9259-2AE52095B773}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB72D796-398F-4F6D-83D8-A0CDE5CC6C6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10184251-4122-4097-A807-8F46B1EDCD70}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A3EE722-D2D0-4C67-A5AD-38B994D6416D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AD5EBE7-FA0A-419C-A34B-B8A30F079823}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE4B6A41-008B-40AE-8309-DFE7BEC78E9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B638B95C-7998-4327-98D7-101DB5DF405D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15668,7 +15668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A307DA9D-B1FF-455D-A8CF-4EB339C3C79F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA940E1F-29BC-405F-8EC4-F505CE18F09F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16951,18 +16951,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{084D7BFD-D9CE-49C0-9672-AC4F38E1533F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47346CC1-615A-4A45-B07B-56942E788497}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8108C0BA-894E-4C63-8D93-F8BA44833111}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F876BB5-AD98-41CF-8590-B286FBF9CE32}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{664C2D26-7A4D-460D-852C-176FE767D8C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EEB276D-0CAF-4C53-8366-4F5437923E1A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{680081A6-845B-452F-ACA0-C6A2E29C1F4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48E6ADBB-6B0D-4285-9C1B-3A00FBB54535}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A455187E-8A62-4B2D-911C-325056A29DA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA2B6F39-8C99-48B4-BC46-BE22F2408A60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C76C4C88-0CA9-4FF0-9461-6EDB7F4F9CB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D696079B-7A98-4CC6-A330-11E7832A6DA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BE113E3-6ADF-48D9-8E57-37701FC76C50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50CA31FF-5C73-4B8D-95F6-2BFCA2077E7F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE5B59D0-9399-42C2-8373-6E5CBCAE8BB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C08FA274-BFB1-454B-991B-99860A30E97C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BDFDAFB2-E4B6-4220-81D4-DC46FB9D0065}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFA8678B-D514-4AFD-A347-369E07902B82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB76C51B-BED3-4F11-BDEF-6D4B5CBCB257}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6036EC9-8D4E-4273-9012-E3914235E70F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45E6592D-71AB-4027-8AF4-8BD408DBE5D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E18A6334-DF8A-4F76-88FC-2AD7FAF88B98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F773DF43-CFBF-4CCD-998E-6854976A60DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3815CB7-9556-4D29-8FA9-677CE1A7075F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
